--- a/static/template_bulk_upload_flushout.xlsx
+++ b/static/template_bulk_upload_flushout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4. web\pricing\pricing\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47545E74-8625-4461-B267-FD3697D1872E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AAB9CD-CB29-4233-9C23-DB7796BD6563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4800F2B2-9F42-43F0-A155-8819F0270A6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SKU</t>
   </si>
@@ -54,6 +54,18 @@
 1. isi sku NFI bundle ataupun single
 2. start date &amp; end date format MM/DD/YYYY
 3. WH : DT,SSI,FBL,FBB,Enjo</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Total Stock</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>Kategori</t>
   </si>
 </sst>
 </file>
@@ -417,37 +429,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3B2528-DBE3-4AA5-9CE3-D7FC30424B92}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
